--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.62448933333334</v>
+        <v>45.82032266666667</v>
       </c>
       <c r="H2">
-        <v>130.873468</v>
+        <v>137.460968</v>
       </c>
       <c r="I2">
-        <v>0.289568119079398</v>
+        <v>0.2798800263398926</v>
       </c>
       <c r="J2">
-        <v>0.2895681190793979</v>
+        <v>0.2798800263398927</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.00842133333333</v>
+        <v>16.28832166666666</v>
       </c>
       <c r="N2">
-        <v>57.02526400000001</v>
+        <v>48.864965</v>
       </c>
       <c r="O2">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="P2">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="Q2">
-        <v>829.2326736995059</v>
+        <v>746.3361544651244</v>
       </c>
       <c r="R2">
-        <v>7463.094063295553</v>
+        <v>6717.02539018612</v>
       </c>
       <c r="S2">
-        <v>0.07784300112847359</v>
+        <v>0.06214383397965475</v>
       </c>
       <c r="T2">
-        <v>0.07784300112847357</v>
+        <v>0.06214383397965476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.62448933333334</v>
+        <v>45.82032266666667</v>
       </c>
       <c r="H3">
-        <v>130.873468</v>
+        <v>137.460968</v>
       </c>
       <c r="I3">
-        <v>0.289568119079398</v>
+        <v>0.2798800263398926</v>
       </c>
       <c r="J3">
-        <v>0.2895681190793979</v>
+        <v>0.2798800263398927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>21.993491</v>
       </c>
       <c r="N3">
-        <v>65.98047299999999</v>
+        <v>65.980473</v>
       </c>
       <c r="O3">
-        <v>0.311040503401162</v>
+        <v>0.299808519696413</v>
       </c>
       <c r="P3">
-        <v>0.311040503401162</v>
+        <v>0.2998085196964129</v>
       </c>
       <c r="Q3">
-        <v>959.4548135322625</v>
+        <v>1007.74885418643</v>
       </c>
       <c r="R3">
-        <v>8635.093321790362</v>
+        <v>9069.739687677866</v>
       </c>
       <c r="S3">
-        <v>0.09006741352738358</v>
+        <v>0.08391041638955628</v>
       </c>
       <c r="T3">
-        <v>0.09006741352738357</v>
+        <v>0.08391041638955628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.62448933333334</v>
+        <v>45.82032266666667</v>
       </c>
       <c r="H4">
-        <v>130.873468</v>
+        <v>137.460968</v>
       </c>
       <c r="I4">
-        <v>0.289568119079398</v>
+        <v>0.2798800263398926</v>
       </c>
       <c r="J4">
-        <v>0.2895681190793979</v>
+        <v>0.2798800263398927</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.229533</v>
+        <v>19.34010233333333</v>
       </c>
       <c r="N4">
-        <v>36.688599</v>
+        <v>58.020307</v>
       </c>
       <c r="O4">
-        <v>0.17295481197965</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="P4">
-        <v>0.1729548119796499</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="Q4">
-        <v>533.5071319101479</v>
+        <v>886.1697293196863</v>
       </c>
       <c r="R4">
-        <v>4801.564187191331</v>
+        <v>7975.527563877177</v>
       </c>
       <c r="S4">
-        <v>0.05008219959067817</v>
+        <v>0.07378710545800249</v>
       </c>
       <c r="T4">
-        <v>0.05008219959067815</v>
+        <v>0.0737871054580025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.62448933333334</v>
+        <v>45.82032266666667</v>
       </c>
       <c r="H5">
-        <v>130.873468</v>
+        <v>137.460968</v>
       </c>
       <c r="I5">
-        <v>0.289568119079398</v>
+        <v>0.2798800263398926</v>
       </c>
       <c r="J5">
-        <v>0.2895681190793979</v>
+        <v>0.2798800263398927</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.47796633333333</v>
+        <v>15.736544</v>
       </c>
       <c r="N5">
-        <v>52.433899</v>
+        <v>47.209632</v>
       </c>
       <c r="O5">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="P5">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="Q5">
-        <v>762.4673558768591</v>
+        <v>721.0535237381974</v>
       </c>
       <c r="R5">
-        <v>6862.206202891732</v>
+        <v>6489.481713643776</v>
       </c>
       <c r="S5">
-        <v>0.07157550483286267</v>
+        <v>0.06003867051267911</v>
       </c>
       <c r="T5">
-        <v>0.07157550483286265</v>
+        <v>0.06003867051267911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>119.214256</v>
       </c>
       <c r="I6">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="J6">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.00842133333333</v>
+        <v>16.28832166666666</v>
       </c>
       <c r="N6">
-        <v>57.02526400000001</v>
+        <v>48.864965</v>
       </c>
       <c r="O6">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="P6">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="Q6">
-        <v>755.3582689959539</v>
+        <v>647.2667163267822</v>
       </c>
       <c r="R6">
-        <v>6798.224420963586</v>
+        <v>5825.40044694104</v>
       </c>
       <c r="S6">
-        <v>0.07090814972778241</v>
+        <v>0.05389479676057615</v>
       </c>
       <c r="T6">
-        <v>0.07090814972778239</v>
+        <v>0.05389479676057615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>119.214256</v>
       </c>
       <c r="I7">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="J7">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>21.993491</v>
       </c>
       <c r="N7">
-        <v>65.98047299999999</v>
+        <v>65.980473</v>
       </c>
       <c r="O7">
-        <v>0.311040503401162</v>
+        <v>0.299808519696413</v>
       </c>
       <c r="P7">
-        <v>0.311040503401162</v>
+        <v>0.2998085196964129</v>
       </c>
       <c r="Q7">
-        <v>873.9792221358986</v>
+        <v>873.9792221358989</v>
       </c>
       <c r="R7">
-        <v>7865.812999223087</v>
+        <v>7865.812999223089</v>
       </c>
       <c r="S7">
-        <v>0.08204351773967944</v>
+        <v>0.07277206036066296</v>
       </c>
       <c r="T7">
-        <v>0.08204351773967943</v>
+        <v>0.07277206036066294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>119.214256</v>
       </c>
       <c r="I8">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="J8">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.229533</v>
+        <v>19.34010233333333</v>
       </c>
       <c r="N8">
-        <v>36.688599</v>
+        <v>58.020307</v>
       </c>
       <c r="O8">
-        <v>0.17295481197965</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="P8">
-        <v>0.1729548119796499</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="Q8">
-        <v>485.978225940816</v>
+        <v>768.5386368773992</v>
       </c>
       <c r="R8">
-        <v>4373.804033467344</v>
+        <v>6916.847731896592</v>
       </c>
       <c r="S8">
-        <v>0.04562049324654713</v>
+        <v>0.06399252826132656</v>
       </c>
       <c r="T8">
-        <v>0.04562049324654712</v>
+        <v>0.06399252826132658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>119.214256</v>
       </c>
       <c r="I9">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="J9">
-        <v>0.2637711707721372</v>
+        <v>0.2427284602664133</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.47796633333333</v>
+        <v>15.736544</v>
       </c>
       <c r="N9">
-        <v>52.433899</v>
+        <v>47.209632</v>
       </c>
       <c r="O9">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="P9">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="Q9">
-        <v>694.5409176071271</v>
+        <v>625.3401283237547</v>
       </c>
       <c r="R9">
-        <v>6250.868258464144</v>
+        <v>5628.061154913792</v>
       </c>
       <c r="S9">
-        <v>0.06519901005812827</v>
+        <v>0.05206907488384761</v>
       </c>
       <c r="T9">
-        <v>0.06519901005812825</v>
+        <v>0.05206907488384761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.95455566666667</v>
+        <v>43.41682666666667</v>
       </c>
       <c r="H10">
-        <v>98.86366700000001</v>
+        <v>130.25048</v>
       </c>
       <c r="I10">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="J10">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.00842133333333</v>
+        <v>16.28832166666666</v>
       </c>
       <c r="N10">
-        <v>57.02526400000001</v>
+        <v>48.864965</v>
       </c>
       <c r="O10">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="P10">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="Q10">
-        <v>626.4140789647877</v>
+        <v>707.1872384925778</v>
       </c>
       <c r="R10">
-        <v>5637.726710683089</v>
+        <v>6364.6851464332</v>
       </c>
       <c r="S10">
-        <v>0.05880370299231344</v>
+        <v>0.05888409140906342</v>
       </c>
       <c r="T10">
-        <v>0.05880370299231343</v>
+        <v>0.05888409140906344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>32.95455566666667</v>
+        <v>43.41682666666667</v>
       </c>
       <c r="H11">
-        <v>98.86366700000001</v>
+        <v>130.25048</v>
       </c>
       <c r="I11">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="J11">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>21.993491</v>
       </c>
       <c r="N11">
-        <v>65.98047299999999</v>
+        <v>65.980473</v>
       </c>
       <c r="O11">
-        <v>0.311040503401162</v>
+        <v>0.299808519696413</v>
       </c>
       <c r="P11">
-        <v>0.311040503401162</v>
+        <v>0.2998085196964129</v>
       </c>
       <c r="Q11">
-        <v>724.7857234638323</v>
+        <v>954.8875865418936</v>
       </c>
       <c r="R11">
-        <v>6523.07151117449</v>
+        <v>8593.988278877041</v>
       </c>
       <c r="S11">
-        <v>0.06803819685226455</v>
+        <v>0.07950891202613657</v>
       </c>
       <c r="T11">
-        <v>0.06803819685226455</v>
+        <v>0.07950891202613657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.95455566666667</v>
+        <v>43.41682666666667</v>
       </c>
       <c r="H12">
-        <v>98.86366700000001</v>
+        <v>130.25048</v>
       </c>
       <c r="I12">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="J12">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.229533</v>
+        <v>19.34010233333333</v>
       </c>
       <c r="N12">
-        <v>36.688599</v>
+        <v>58.020307</v>
       </c>
       <c r="O12">
-        <v>0.17295481197965</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="P12">
-        <v>0.1729548119796499</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="Q12">
-        <v>403.018826025837</v>
+        <v>839.6858707219291</v>
       </c>
       <c r="R12">
-        <v>3627.169434232533</v>
+        <v>7557.172836497361</v>
       </c>
       <c r="S12">
-        <v>0.03783280124402558</v>
+        <v>0.0699166173754534</v>
       </c>
       <c r="T12">
-        <v>0.03783280124402558</v>
+        <v>0.06991661737545342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.95455566666667</v>
+        <v>43.41682666666667</v>
       </c>
       <c r="H13">
-        <v>98.86366700000001</v>
+        <v>130.25048</v>
       </c>
       <c r="I13">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="J13">
-        <v>0.2187438488180198</v>
+        <v>0.2651989746877358</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.47796633333333</v>
+        <v>15.736544</v>
       </c>
       <c r="N13">
-        <v>52.433899</v>
+        <v>47.209632</v>
       </c>
       <c r="O13">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="P13">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="Q13">
-        <v>575.9786144719592</v>
+        <v>683.2308031803734</v>
       </c>
       <c r="R13">
-        <v>5183.807530247633</v>
+        <v>6149.07722862336</v>
       </c>
       <c r="S13">
-        <v>0.05406914772941621</v>
+        <v>0.0568893538770824</v>
       </c>
       <c r="T13">
-        <v>0.05406914772941621</v>
+        <v>0.05688935387708241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.33650333333333</v>
+        <v>34.73892266666667</v>
       </c>
       <c r="H14">
-        <v>103.00951</v>
+        <v>104.216768</v>
       </c>
       <c r="I14">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="J14">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.00842133333333</v>
+        <v>16.28832166666666</v>
       </c>
       <c r="N14">
-        <v>57.02526400000001</v>
+        <v>48.864965</v>
       </c>
       <c r="O14">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="P14">
-        <v>0.2688244872258519</v>
+        <v>0.2220374022124247</v>
       </c>
       <c r="Q14">
-        <v>652.6827224734045</v>
+        <v>565.8387467481244</v>
       </c>
       <c r="R14">
-        <v>5874.144502260641</v>
+        <v>5092.54872073312</v>
       </c>
       <c r="S14">
-        <v>0.06126963337728248</v>
+        <v>0.04711468006313033</v>
       </c>
       <c r="T14">
-        <v>0.06126963337728248</v>
+        <v>0.04711468006313034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.33650333333333</v>
+        <v>34.73892266666667</v>
       </c>
       <c r="H15">
-        <v>103.00951</v>
+        <v>104.216768</v>
       </c>
       <c r="I15">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="J15">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>21.993491</v>
       </c>
       <c r="N15">
-        <v>65.98047299999999</v>
+        <v>65.980473</v>
       </c>
       <c r="O15">
-        <v>0.311040503401162</v>
+        <v>0.299808519696413</v>
       </c>
       <c r="P15">
-        <v>0.311040503401162</v>
+        <v>0.2998085196964129</v>
       </c>
       <c r="Q15">
-        <v>755.1795770331365</v>
+        <v>764.0301830190294</v>
       </c>
       <c r="R15">
-        <v>6796.61619329823</v>
+        <v>6876.271647171265</v>
       </c>
       <c r="S15">
-        <v>0.07089137528183447</v>
+        <v>0.06361713092005714</v>
       </c>
       <c r="T15">
-        <v>0.07089137528183447</v>
+        <v>0.06361713092005714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.33650333333333</v>
+        <v>34.73892266666667</v>
       </c>
       <c r="H16">
-        <v>103.00951</v>
+        <v>104.216768</v>
       </c>
       <c r="I16">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="J16">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.229533</v>
+        <v>19.34010233333333</v>
       </c>
       <c r="N16">
-        <v>36.688599</v>
+        <v>58.020307</v>
       </c>
       <c r="O16">
-        <v>0.17295481197965</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="P16">
-        <v>0.1729548119796499</v>
+        <v>0.2636383396948583</v>
       </c>
       <c r="Q16">
-        <v>419.9194006196099</v>
+        <v>671.8543193230863</v>
       </c>
       <c r="R16">
-        <v>3779.27460557649</v>
+        <v>6046.688873907777</v>
       </c>
       <c r="S16">
-        <v>0.03941931789839907</v>
+        <v>0.05594208860007577</v>
       </c>
       <c r="T16">
-        <v>0.03941931789839907</v>
+        <v>0.05594208860007577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.33650333333333</v>
+        <v>34.73892266666667</v>
       </c>
       <c r="H17">
-        <v>103.00951</v>
+        <v>104.216768</v>
       </c>
       <c r="I17">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="J17">
-        <v>0.227916861330445</v>
+        <v>0.2121925387059582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.47796633333333</v>
+        <v>15.736544</v>
       </c>
       <c r="N17">
-        <v>52.433899</v>
+        <v>47.209632</v>
       </c>
       <c r="O17">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="P17">
-        <v>0.2471801973933362</v>
+        <v>0.2145157383963041</v>
       </c>
       <c r="Q17">
-        <v>600.1322492643877</v>
+        <v>546.6705850565974</v>
       </c>
       <c r="R17">
-        <v>5401.19024337949</v>
+        <v>4920.035265509376</v>
       </c>
       <c r="S17">
-        <v>0.05633653477292903</v>
+        <v>0.04551863912269496</v>
       </c>
       <c r="T17">
-        <v>0.05633653477292903</v>
+        <v>0.04551863912269496</v>
       </c>
     </row>
   </sheetData>
